--- a/SchedulingData/dynamic9/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.06</v>
+        <v>231.42</v>
       </c>
       <c r="D2" t="n">
-        <v>263.82</v>
+        <v>283.42</v>
       </c>
       <c r="E2" t="n">
-        <v>14.648</v>
+        <v>10.828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>238.44</v>
+        <v>247.98</v>
       </c>
       <c r="D3" t="n">
-        <v>288.76</v>
+        <v>287.88</v>
       </c>
       <c r="E3" t="n">
-        <v>10.784</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>288.76</v>
+        <v>287.88</v>
       </c>
       <c r="D4" t="n">
-        <v>358.14</v>
+        <v>356.18</v>
       </c>
       <c r="E4" t="n">
-        <v>7.976</v>
+        <v>7.292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>244.04</v>
+        <v>249.18</v>
       </c>
       <c r="D5" t="n">
-        <v>292.7</v>
+        <v>302.64</v>
       </c>
       <c r="E5" t="n">
-        <v>10.04</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>229.8</v>
+        <v>238.42</v>
       </c>
       <c r="D6" t="n">
-        <v>286.26</v>
+        <v>312.72</v>
       </c>
       <c r="E6" t="n">
-        <v>14.504</v>
+        <v>10.868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>245.26</v>
+        <v>210.28</v>
       </c>
       <c r="D7" t="n">
-        <v>300.46</v>
+        <v>274.46</v>
       </c>
       <c r="E7" t="n">
-        <v>11.624</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>292.7</v>
+        <v>302.64</v>
       </c>
       <c r="D8" t="n">
-        <v>338.68</v>
+        <v>350.78</v>
       </c>
       <c r="E8" t="n">
-        <v>7.072</v>
+        <v>9.651999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>286.26</v>
+        <v>274.46</v>
       </c>
       <c r="D9" t="n">
-        <v>324.06</v>
+        <v>318.22</v>
       </c>
       <c r="E9" t="n">
-        <v>12.344</v>
+        <v>8.988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>338.68</v>
+        <v>245.04</v>
       </c>
       <c r="D10" t="n">
-        <v>391.82</v>
+        <v>282.26</v>
       </c>
       <c r="E10" t="n">
-        <v>4.368</v>
+        <v>11.964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>249.14</v>
+        <v>356.18</v>
       </c>
       <c r="D11" t="n">
-        <v>302.34</v>
+        <v>401.18</v>
       </c>
       <c r="E11" t="n">
-        <v>9.456</v>
+        <v>4.432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>263.82</v>
+        <v>282.26</v>
       </c>
       <c r="D12" t="n">
-        <v>326.32</v>
+        <v>315.26</v>
       </c>
       <c r="E12" t="n">
-        <v>11.008</v>
+        <v>9.804</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>302.34</v>
+        <v>318.22</v>
       </c>
       <c r="D13" t="n">
-        <v>347.08</v>
+        <v>364.2</v>
       </c>
       <c r="E13" t="n">
-        <v>6.112</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>347.08</v>
+        <v>312.72</v>
       </c>
       <c r="D14" t="n">
-        <v>400.38</v>
+        <v>372.1</v>
       </c>
       <c r="E14" t="n">
-        <v>3.872</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>358.14</v>
+        <v>283.42</v>
       </c>
       <c r="D15" t="n">
-        <v>409.84</v>
+        <v>338.64</v>
       </c>
       <c r="E15" t="n">
-        <v>4.916</v>
+        <v>7.916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>300.46</v>
+        <v>315.26</v>
       </c>
       <c r="D16" t="n">
-        <v>355.06</v>
+        <v>386.76</v>
       </c>
       <c r="E16" t="n">
-        <v>8.763999999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>pond11</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>326.32</v>
-      </c>
-      <c r="D17" t="n">
-        <v>383.34</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.416</v>
+        <v>6.744</v>
       </c>
     </row>
   </sheetData>
